--- a/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1129,787 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.69</v>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1903,13 +1946,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2255,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2267,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2286,14 +2307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.41</v>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2302,14 +2345,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.69</v>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2318,13 +2383,591 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,623 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7391</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>920003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中金新锐股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0280</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7066</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6901</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2272</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1832</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0993</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>26.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0535</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007713</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华富科技动能混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>26.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.10</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.87</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1080,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>86.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9502</t>
+          <t>0.1535</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1169,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>84.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3177</t>
+          <t>0.1475</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1207,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009092</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2882</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1245,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>014175</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>工银价值成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2872</t>
+          <t>0.1112</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1283,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>84.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1898</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1321,32 +795,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>007713</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合A</t>
+          <t>华富科技动能混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.39</t>
+          <t>86.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1583</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1359,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>014176</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>工银价值成长混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1022</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1397,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>010938</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0957</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1435,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009415</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮瑞享两年定期开放混合A</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1473,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000590</t>
+          <t>012430</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安新活力灵活配置混合</t>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1511,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007713</t>
+          <t>010939</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华富科技动能混合</t>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>30.25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1549,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>013025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>富国宏观策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>84.79</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1587,36 +1061,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>002908</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国睿利定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1625,36 +1099,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.39</t>
+          <t>42.03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1663,188 +1137,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>96.32</t>
+          <t>42.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011127</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001448</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华商双翼平衡混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009416</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010002</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>创金合信研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2307,36 +1629,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.26</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1535</t>
+          <t>0.9502</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2345,36 +1667,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.79</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1475</t>
+          <t>0.3177</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2383,36 +1705,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>009092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合A</t>
+          <t>富国新材料新能源混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.2882</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2421,36 +1743,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014175</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银价值成长混合A</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1112</t>
+          <t>0.2872</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2459,36 +1781,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.62</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.1898</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2497,32 +1819,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007713</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华富科技动能混合</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.17</t>
+          <t>88.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.1583</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2535,36 +1857,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014176</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银价值成长混合C</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.1022</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2573,36 +1895,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010938</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+          <t>创金合信研究精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0957</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2611,36 +1933,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>009415</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>中邮瑞享两年定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>34.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2649,36 +1971,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012430</t>
+          <t>000590</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+          <t>华安新活力灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2687,36 +2009,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010939</t>
+          <t>007713</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+          <t>华富科技动能混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2725,36 +2047,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>013025</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合C</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.79</t>
+          <t>84.95</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2763,36 +2085,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002908</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国睿利定期开放混合</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2801,36 +2123,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>42.03</t>
+          <t>88.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2839,36 +2161,188 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>42.03</t>
+          <t>96.32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2882,96 +2356,622 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.87</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.41</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.69</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.87</v>
       </c>
     </row>
@@ -549,6 +566,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1174,7 +1703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1572,7 +2101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2350,7 +2879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/000400-许继电气.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.41</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.69</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.87</v>
       </c>
     </row>
@@ -566,6 +583,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀碳中和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1077,7 +1682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1703,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2101,7 +2706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2879,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
